--- a/data/data_digitization/occurrence_data/1_raw_data/HJ-8-occ-entry.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/HJ-8-occ-entry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA26703-58F4-2B4B-922C-AD8E24640AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27786157-A8B2-B646-B629-955B77D1AE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -1348,7 +1348,80 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{E4B68EC2-AB7F-2244-AF7B-DB48DCE4489B}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B727A65F-10E9-A849-914F-78BBA16C45F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"HJC-2863"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E4B68EC2-AB7F-2244-AF7B-DB48DCE4489B}">
       <text>
         <r>
           <rPr>
@@ -1431,79 +1504,6 @@
             <family val="2"/>
           </rPr>
           <t>Isoetes echinospora</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{B727A65F-10E9-A849-914F-78BBA16C45F5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
@@ -4203,10 +4203,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="133" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="H186" sqref="H186:H191"/>
+      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4226,8 +4226,8 @@
     <col min="13" max="13" width="20.33203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="4"/>
     <col min="15" max="15" width="22.1640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="29.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="29.5" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="4" customWidth="1"/>
     <col min="18" max="18" width="15.83203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="11.83203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="8.5" style="4" customWidth="1"/>
@@ -4293,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>2</v>
@@ -5393,11 +5393,11 @@
       <c r="O22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="4">
         <v>2630</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>27</v>
@@ -5449,11 +5449,11 @@
       <c r="O23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="4">
         <v>2630</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>27</v>
@@ -6609,10 +6609,10 @@
         <v>8</v>
       </c>
       <c r="P46" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="Y46" s="4">
         <v>3</v>
@@ -6665,10 +6665,10 @@
         <v>8</v>
       </c>
       <c r="P47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>9</v>
@@ -6721,10 +6721,10 @@
         <v>8</v>
       </c>
       <c r="P48" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q48" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>9</v>
@@ -6774,10 +6774,10 @@
         <v>8</v>
       </c>
       <c r="P49" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>9</v>
@@ -6830,10 +6830,10 @@
         <v>8</v>
       </c>
       <c r="P50" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>9</v>
@@ -6886,10 +6886,10 @@
         <v>8</v>
       </c>
       <c r="P51" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q51" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S51" s="4" t="s">
         <v>9</v>
@@ -6942,10 +6942,10 @@
         <v>8</v>
       </c>
       <c r="P52" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q52" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>9</v>
@@ -6998,10 +6998,10 @@
         <v>8</v>
       </c>
       <c r="P53" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q53" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>9</v>
@@ -7054,10 +7054,10 @@
         <v>8</v>
       </c>
       <c r="P54" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q54" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>9</v>
@@ -7110,10 +7110,10 @@
         <v>8</v>
       </c>
       <c r="P55" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q55" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S55" s="4" t="s">
         <v>9</v>
@@ -7166,10 +7166,10 @@
         <v>8</v>
       </c>
       <c r="P56" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q56" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S56" s="4" t="s">
         <v>9</v>
@@ -7222,10 +7222,10 @@
         <v>8</v>
       </c>
       <c r="P57" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q57" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S57" s="4" t="s">
         <v>9</v>
@@ -7278,10 +7278,10 @@
         <v>8</v>
       </c>
       <c r="P58" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q58" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>9</v>
@@ -7334,10 +7334,10 @@
         <v>8</v>
       </c>
       <c r="P59" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q59" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S59" s="4" t="s">
         <v>9</v>
@@ -7378,10 +7378,10 @@
         <v>13</v>
       </c>
       <c r="P60" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q60" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="Y60" s="4">
         <v>4</v>
@@ -7425,10 +7425,10 @@
         <v>8</v>
       </c>
       <c r="P61" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q61" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S61" s="4" t="s">
         <v>9</v>
@@ -7484,10 +7484,10 @@
         <v>8</v>
       </c>
       <c r="P62" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q62" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>9</v>
@@ -7942,11 +7942,11 @@
       <c r="O71" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q71" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S71" s="5" t="s">
         <v>9</v>
@@ -8001,11 +8001,11 @@
       <c r="O72" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P72" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q72" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S72" s="5" t="s">
         <v>9</v>
@@ -8060,11 +8060,11 @@
       <c r="O73" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q73" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S73" s="5" t="s">
         <v>9</v>
@@ -8116,11 +8116,11 @@
       <c r="O74" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q74" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S74" s="5" t="s">
         <v>9</v>
@@ -8172,11 +8172,11 @@
       <c r="O75" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q75" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S75" s="5" t="s">
         <v>9</v>
@@ -8228,11 +8228,11 @@
       <c r="O76" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q76" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q76" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S76" s="5" t="s">
         <v>9</v>
@@ -8284,11 +8284,11 @@
       <c r="O77" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q77" s="4">
         <v>2636</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="S77" s="5" t="s">
         <v>9</v>
@@ -9125,10 +9125,10 @@
         <v>8</v>
       </c>
       <c r="P94" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q94" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S94" s="5" t="s">
         <v>9</v>
@@ -9178,10 +9178,10 @@
         <v>8</v>
       </c>
       <c r="P95" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q95" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S95" s="5" t="s">
         <v>9</v>
@@ -9231,10 +9231,10 @@
         <v>8</v>
       </c>
       <c r="P96" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q96" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q96" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>9</v>
@@ -9284,10 +9284,10 @@
         <v>8</v>
       </c>
       <c r="P97" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q97" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q97" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>9</v>
@@ -9337,10 +9337,10 @@
         <v>8</v>
       </c>
       <c r="P98" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q98" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q98" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>9</v>
@@ -9390,10 +9390,10 @@
         <v>8</v>
       </c>
       <c r="P99" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q99" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>9</v>
@@ -9437,10 +9437,10 @@
         <v>8</v>
       </c>
       <c r="P100" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q100" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S100" s="4" t="s">
         <v>0</v>
@@ -9481,10 +9481,10 @@
         <v>13</v>
       </c>
       <c r="P101" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q101" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q101" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="AD101" s="4" t="s">
         <v>14</v>
@@ -9534,10 +9534,10 @@
         <v>8</v>
       </c>
       <c r="P102" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q102" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S102" s="5" t="s">
         <v>9</v>
@@ -9587,10 +9587,10 @@
         <v>8</v>
       </c>
       <c r="P103" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q103" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q103" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S103" s="5" t="s">
         <v>9</v>
@@ -9640,10 +9640,10 @@
         <v>8</v>
       </c>
       <c r="P104" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q104" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q104" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S104" s="4" t="s">
         <v>9</v>
@@ -9693,10 +9693,10 @@
         <v>8</v>
       </c>
       <c r="P105" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q105" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q105" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>9</v>
@@ -9746,10 +9746,10 @@
         <v>8</v>
       </c>
       <c r="P106" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q106" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>9</v>
@@ -9799,10 +9799,10 @@
         <v>8</v>
       </c>
       <c r="P107" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q107" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q107" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>9</v>
@@ -10662,10 +10662,10 @@
         <v>171</v>
       </c>
       <c r="P124" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q124" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q124" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S124" s="5" t="s">
         <v>9</v>
@@ -10727,10 +10727,10 @@
         <v>171</v>
       </c>
       <c r="P125" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q125" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q125" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S125" s="5" t="s">
         <v>9</v>
@@ -10792,10 +10792,10 @@
         <v>171</v>
       </c>
       <c r="P126" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q126" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q126" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S126" s="5" t="s">
         <v>9</v>
@@ -10857,10 +10857,10 @@
         <v>171</v>
       </c>
       <c r="P127" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q127" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q127" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S127" s="5" t="s">
         <v>9</v>
@@ -10922,10 +10922,10 @@
         <v>171</v>
       </c>
       <c r="P128" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q128" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q128" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S128" s="5" t="s">
         <v>9</v>
@@ -10987,10 +10987,10 @@
         <v>171</v>
       </c>
       <c r="P129" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q129" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q129" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>9</v>
@@ -11052,10 +11052,10 @@
         <v>171</v>
       </c>
       <c r="P130" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q130" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="Q130" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="S130" s="5" t="s">
         <v>9</v>
@@ -11118,10 +11118,10 @@
         <v>181</v>
       </c>
       <c r="P131" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q131" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="Q131" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S131" s="5" t="s">
         <v>9</v>
@@ -11183,10 +11183,10 @@
         <v>181</v>
       </c>
       <c r="P132" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q132" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="Q132" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S132" s="5" t="s">
         <v>9</v>
@@ -11248,10 +11248,10 @@
         <v>181</v>
       </c>
       <c r="P133" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q133" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="Q133" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S133" s="5" t="s">
         <v>9</v>
@@ -11314,10 +11314,10 @@
         <v>181</v>
       </c>
       <c r="P134" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q134" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="Q134" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S134" s="5" t="s">
         <v>9</v>
@@ -11379,10 +11379,10 @@
         <v>181</v>
       </c>
       <c r="P135" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q135" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="Q135" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S135" s="5" t="s">
         <v>9</v>
@@ -11444,10 +11444,10 @@
         <v>187</v>
       </c>
       <c r="P136" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q136" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="Q136" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="S136" s="5" t="s">
         <v>9</v>
@@ -11512,10 +11512,10 @@
         <v>187</v>
       </c>
       <c r="P137" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q137" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="Q137" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>9</v>
@@ -11577,10 +11577,10 @@
         <v>191</v>
       </c>
       <c r="P138" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q138" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="Q138" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="S138" s="5" t="s">
         <v>9</v>
@@ -11642,10 +11642,10 @@
         <v>191</v>
       </c>
       <c r="P139" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q139" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="Q139" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="S139" s="5" t="s">
         <v>9</v>
@@ -11707,10 +11707,10 @@
         <v>191</v>
       </c>
       <c r="P140" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q140" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="Q140" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="S140" s="5" t="s">
         <v>0</v>
@@ -11772,10 +11772,10 @@
         <v>191</v>
       </c>
       <c r="P141" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q141" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="Q141" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="S141" s="5" t="s">
         <v>9</v>
@@ -11834,10 +11834,10 @@
         <v>8</v>
       </c>
       <c r="P142" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q142" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="Q142" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="R142" s="4" t="s">
         <v>200</v>
@@ -11902,10 +11902,10 @@
         <v>8</v>
       </c>
       <c r="P143" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q143" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="Q143" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="S143" s="5" t="s">
         <v>9</v>
@@ -11967,10 +11967,10 @@
         <v>8</v>
       </c>
       <c r="P144" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q144" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="Q144" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="S144" s="5" t="s">
         <v>9</v>
@@ -12038,10 +12038,10 @@
         <v>8</v>
       </c>
       <c r="P145" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q145" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="Q145" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>9</v>
@@ -13162,11 +13162,11 @@
       <c r="O163" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="P163" s="4">
+      <c r="P163" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q163" s="4">
         <v>2672</v>
-      </c>
-      <c r="Q163" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="R163" s="4" t="s">
         <v>283</v>
@@ -13230,11 +13230,11 @@
       <c r="O164" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="P164" s="4">
+      <c r="P164" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q164" s="4">
         <v>2672</v>
-      </c>
-      <c r="Q164" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="R164" s="4" t="s">
         <v>283</v>
@@ -13298,11 +13298,11 @@
       <c r="O165" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="P165" s="4">
+      <c r="P165" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q165" s="4">
         <v>2672</v>
-      </c>
-      <c r="Q165" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="R165" s="4" t="s">
         <v>283</v>
@@ -13366,11 +13366,11 @@
       <c r="O166" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="P166" s="4">
+      <c r="P166" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q166" s="4">
         <v>2672</v>
-      </c>
-      <c r="Q166" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="R166" s="4" t="s">
         <v>283</v>
@@ -13435,10 +13435,10 @@
         <v>282</v>
       </c>
       <c r="P167" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q167" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="Q167" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="R167" s="4" t="s">
         <v>241</v>
@@ -13879,10 +13879,10 @@
         <v>289</v>
       </c>
       <c r="P174" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q174" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="Q174" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="R174" s="4" t="s">
         <v>288</v>
@@ -13945,10 +13945,10 @@
         <v>289</v>
       </c>
       <c r="P175" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q175" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="Q175" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="R175" s="4" t="s">
         <v>288</v>
@@ -14011,10 +14011,10 @@
         <v>299</v>
       </c>
       <c r="P176" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q176" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="Q176" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="R176" s="4" t="s">
         <v>298</v>
@@ -14085,10 +14085,10 @@
         <v>299</v>
       </c>
       <c r="P177" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q177" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="Q177" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="R177" s="4" t="s">
         <v>298</v>
@@ -14153,10 +14153,10 @@
         <v>299</v>
       </c>
       <c r="P178" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q178" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="Q178" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="R178" s="4" t="s">
         <v>298</v>
@@ -14221,10 +14221,10 @@
         <v>299</v>
       </c>
       <c r="P179" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q179" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="Q179" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="R179" s="4" t="s">
         <v>298</v>
@@ -14289,10 +14289,10 @@
         <v>299</v>
       </c>
       <c r="P180" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q180" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="Q180" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="R180" s="4" t="s">
         <v>298</v>
@@ -14357,10 +14357,10 @@
         <v>299</v>
       </c>
       <c r="P181" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q181" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="Q181" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="R181" s="4" t="s">
         <v>298</v>
@@ -14424,11 +14424,11 @@
       <c r="O182" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P182" s="4">
+      <c r="P182" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q182" s="4">
         <v>2690</v>
-      </c>
-      <c r="Q182" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="U182" s="4" t="s">
         <v>311</v>
@@ -14483,11 +14483,11 @@
       <c r="O183" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P183" s="4">
+      <c r="P183" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q183" s="4">
         <v>2690</v>
-      </c>
-      <c r="Q183" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="U183" s="4" t="s">
         <v>311</v>
@@ -14542,11 +14542,11 @@
       <c r="O184" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P184" s="4">
+      <c r="P184" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q184" s="4">
         <v>2690</v>
-      </c>
-      <c r="Q184" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="U184" s="4" t="s">
         <v>311</v>
@@ -14601,11 +14601,11 @@
       <c r="O185" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P185" s="4">
+      <c r="P185" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q185" s="4">
         <v>2690</v>
-      </c>
-      <c r="Q185" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="U185" s="4" t="s">
         <v>311</v>
@@ -14943,10 +14943,10 @@
         <v>8</v>
       </c>
       <c r="P192" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q192" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="Q192" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="U192" s="4" t="s">
         <v>334</v>
@@ -15005,10 +15005,10 @@
         <v>341</v>
       </c>
       <c r="P193" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q193" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q193" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U193" s="4" t="s">
         <v>334</v>
@@ -15067,10 +15067,10 @@
         <v>341</v>
       </c>
       <c r="P194" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q194" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q194" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U194" s="4" t="s">
         <v>334</v>
@@ -15129,10 +15129,10 @@
         <v>341</v>
       </c>
       <c r="P195" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q195" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q195" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U195" s="4" t="s">
         <v>334</v>
@@ -15191,10 +15191,10 @@
         <v>341</v>
       </c>
       <c r="P196" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q196" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q196" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U196" s="4" t="s">
         <v>334</v>
@@ -15253,10 +15253,10 @@
         <v>341</v>
       </c>
       <c r="P197" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q197" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q197" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U197" s="4" t="s">
         <v>334</v>
@@ -15315,10 +15315,10 @@
         <v>341</v>
       </c>
       <c r="P198" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q198" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q198" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U198" s="4" t="s">
         <v>334</v>
@@ -15377,10 +15377,10 @@
         <v>341</v>
       </c>
       <c r="P199" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q199" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="Q199" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="U199" s="4" t="s">
         <v>334</v>
@@ -15439,10 +15439,10 @@
         <v>361</v>
       </c>
       <c r="P200" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q200" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="Q200" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="R200" s="4" t="s">
         <v>368</v>
@@ -15507,10 +15507,10 @@
         <v>361</v>
       </c>
       <c r="P201" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q201" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="Q201" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="R201" s="4" t="s">
         <v>368</v>
@@ -15575,10 +15575,10 @@
         <v>361</v>
       </c>
       <c r="P202" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q202" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="Q202" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="R202" s="4" t="s">
         <v>368</v>
@@ -15866,11 +15866,11 @@
       <c r="N207" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P207" s="4">
+      <c r="P207" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q207" s="4">
         <v>2717</v>
-      </c>
-      <c r="Q207" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="R207" s="4" t="s">
         <v>382</v>
